--- a/modul/FORMAT IMPORT EXCEL.xlsx
+++ b/modul/FORMAT IMPORT EXCEL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>NO</t>
   </si>
@@ -49,22 +49,29 @@
   </si>
   <si>
     <t>KELAS</t>
-  </si>
-  <si>
-    <t>RFID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,9 +109,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,13 +411,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -423,7 +446,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -441,12 +464,113 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="6"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="G36:G69">
+      <formula1>$G$36:$G$69</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
